--- a/616_gelusil cn.xlsx
+++ b/616_gelusil cn.xlsx
@@ -419,157 +419,166 @@
         <v>GrandTotal</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>SAHA DRUG DISTRIBUTORS[AS0033]</v>
       </c>
       <c r="B2" t="str">
         <v>616/23/T1-1289</v>
       </c>
-      <c r="C2" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C2" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D2" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E2" t="str">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>86300</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>RADHA PHARMACEUTICALS[AS0039]</v>
       </c>
       <c r="B3" t="str">
         <v>616/23/T1-1290</v>
       </c>
-      <c r="C3" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D3" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E3" t="str">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>34200</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>ONKAR DRUG HOUSE[AS0044]</v>
       </c>
       <c r="B4" t="str">
         <v>616/23/T1-1291</v>
       </c>
-      <c r="C4" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D4" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E4" t="str">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>FIRST FORTUNE[AS0077]</v>
       </c>
       <c r="B5" t="str">
         <v>616/23/T1-1292</v>
       </c>
-      <c r="C5" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D5" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E5" t="str">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
         <v>JORHAT PHARMA DISTRIBUTORS[AS0087]</v>
       </c>
       <c r="B6" t="str">
         <v>616/23/T1-1293</v>
       </c>
-      <c r="C6" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D6" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E6" t="str">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>23400</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
       <c r="A7" t="str">
         <v>ADITYA PHARMA[AS0121]</v>
       </c>
       <c r="B7" t="str">
         <v>616/23/T1-1294</v>
       </c>
-      <c r="C7" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D7" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E7" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
       <c r="A8" t="str">
         <v>EMAR PHARMA DISTRIBUTORS[AS0130]</v>
       </c>
       <c r="B8" t="str">
         <v>616/23/T1-1295</v>
       </c>
-      <c r="C8" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C8" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D8" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E8" t="str">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>82300</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
       <c r="A9" t="str">
         <v>UNIQUE DRUG DISTRIBUTORS[AS0133]</v>
       </c>
       <c r="B9" t="str">
         <v>616/23/T1-1296</v>
       </c>
-      <c r="C9" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C9" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D9" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E9" t="str">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
       <c r="A10" t="str">
         <v>MEDINOVA DRUGS[AS0159]</v>
       </c>
       <c r="B10" t="str">
         <v>616/23/T1-1297</v>
       </c>
-      <c r="C10" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C10" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D10" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E10" t="str">
-        <v>128</v>
+        <v>12800</v>
       </c>
     </row>
   </sheetData>
